--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,102 +49,102 @@
     <t>horrible</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>boring</t>
   </si>
   <si>
-    <t>worse</t>
+    <t>sorry</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>bad</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -160,118 +160,115 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>important</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>top</t>
+    <t>first</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>first</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>whole</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>whole</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -635,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -828,13 +825,13 @@
         <v>48</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.92</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K9">
-        <v>0.7192982456140351</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K10">
-        <v>0.7066666666666667</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1125,13 @@
         <v>54</v>
       </c>
       <c r="K11">
-        <v>0.6153846153846154</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,13 +1175,13 @@
         <v>55</v>
       </c>
       <c r="K12">
-        <v>0.6111111111111112</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,13 +1225,13 @@
         <v>56</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K14">
-        <v>0.55</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K16">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,13 +1425,13 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <v>0.4736842105263158</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,13 +1475,13 @@
         <v>61</v>
       </c>
       <c r="K18">
-        <v>0.4615384615384616</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6875</v>
+        <v>0.65</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>62</v>
@@ -1554,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.675</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K20">
-        <v>0.3636363636363636</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K21">
-        <v>0.3541666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K22">
-        <v>0.3043478260869565</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6363636363636364</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K23">
-        <v>0.2777777777777778</v>
+        <v>0.3125</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.631578947368421</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K24">
-        <v>0.2372881355932203</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5957446808510638</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K25">
-        <v>0.2340619307832423</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L25">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>841</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5579710144927537</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C26">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K26">
-        <v>0.2307692307692308</v>
+        <v>0.2158469945355191</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5428571428571428</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K27">
-        <v>0.2037037037037037</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K28">
-        <v>0.1951219512195122</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,10 +2004,10 @@
         <v>0.5</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K29">
-        <v>0.1739130434782609</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,10 +2054,10 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K30">
-        <v>0.1311475409836066</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,7 +2101,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2122,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K31">
-        <v>0.1263157894736842</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2151,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4583333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K32">
-        <v>0.1230769230769231</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,13 +2201,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4358974358974359</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K33">
-        <v>0.09859154929577464</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2251,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4230769230769231</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K34">
-        <v>0.09411764705882353</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2301,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3928571428571428</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2322,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K35">
-        <v>0.0821917808219178</v>
+        <v>0.03492063492063492</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>67</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,13 +2351,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.375</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2372,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K36">
-        <v>0.02962962962962963</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2396,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>524</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,13 +2401,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3157894736842105</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2422,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K37">
-        <v>0.02932551319648094</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>331</v>
+        <v>645</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2478,13 +2475,13 @@
         <v>81</v>
       </c>
       <c r="K38">
-        <v>0.02826855123674912</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2496,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>275</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2504,13 +2501,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1282051282051282</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2522,19 +2519,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K39">
-        <v>0.02710843373493976</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2546,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>646</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2554,37 +2551,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0436241610738255</v>
+        <v>0.05016722408026756</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K40">
-        <v>0.02560819462227913</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2596,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2604,13 +2601,13 @@
         <v>84</v>
       </c>
       <c r="K41">
-        <v>0.0253968253968254</v>
+        <v>0.01920614596670935</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2622,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>307</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2630,13 +2627,13 @@
         <v>85</v>
       </c>
       <c r="K42">
-        <v>0.02272727272727273</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2648,33 +2645,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
-        <v>0.01440092165898618</v>
-      </c>
-      <c r="L43">
-        <v>25</v>
-      </c>
-      <c r="M43">
-        <v>25</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
